--- a/output_2nd.xlsx
+++ b/output_2nd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,88 +451,72 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>EP-731_ANT</t>
+          <t>EP-642_MAIN BOARD</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ITWELL_EMV</t>
+          <t>ED-643N_MAIN</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>EP-731N_RF</t>
+          <t>ED-946V_MAIN</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>TS-166_KEY</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TS-167_KEY</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>KICC Dual EMV_3(EP-763용)</t>
+          <t>ED-947N_MAIN_USB</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASY-0031</t>
+          <t>BED-0007</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PCB ASSY</t>
+          <t>BEAD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ITWELL_EMV</t>
+          <t>HB-1S2012-800/EBMS201209A800</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASY-0059</t>
+          <t>BED-0014</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PCB ASSY</t>
+          <t>BEAD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KICC Dual EMV_3(EP-763용)</t>
+          <t>HB-1S1608-800/EBMS160808A800</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -542,18 +526,12 @@
       </c>
       <c r="G3" t="n">
         <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BED-0007</t>
+          <t>BED-0015</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -563,42 +541,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HB-1S2012-800/EBMS201209A800</t>
+          <t>HH-1M2012-121/ACMS201209A121</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CCP-0497</t>
+          <t>BED-0019</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C-CHIP</t>
+          <t>BEAD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C1608CH2A060D080AA(6pF)</t>
+          <t>ACMS160808A121/HH-1M1608-121</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -611,64 +583,52 @@
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CCP-0498</t>
+          <t>BUZ-0010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C-CHIP</t>
+          <t>BUZZER</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C1608CH2A100D080AA(10pF)</t>
+          <t>SMT-2603 / CSM-9027A</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CCP-0499</t>
+          <t>BUZ-0015</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C-CHIP</t>
+          <t>BUZZER</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C1608CH2A150J080AA(15pF/5%)</t>
+          <t>GEC09D/DIP</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -678,162 +638,132 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CCP-0500</t>
+          <t>BUZ-0017</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>C-CHIP</t>
+          <t>BUZZER</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C1608CH2A680J080AA(68pF/5%)</t>
+          <t>CRP-9650-3</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CCP-0501</t>
+          <t>CCT-0098</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C-CHIP</t>
+          <t>CHIP-TANTAL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C1608C0G2E221J080AA(220pF/5%)</t>
+          <t>10uF/10V/20%/P</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CCP-0502</t>
+          <t>CCT-0102</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C-CHIP</t>
+          <t>CHIP-TANTAL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C1608X7S2A104K080AB(100nF/10%)</t>
+          <t>10uF/16V/20%/A</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CCP-0503</t>
+          <t>CCT-0139</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C-CHIP</t>
+          <t>CHIP-TANTAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CC3.9C1608/0603N3R9C500LT</t>
+          <t>22uF/16V/20%/B</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CCT-0102</t>
+          <t>CCT-0392</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -843,147 +773,123 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10uF/16V/20%/A</t>
+          <t>47uF/10V/B</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CCT-0139</t>
+          <t>CNT-0050</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CHIP-TANTAL</t>
+          <t>DC JACK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22uF/16V/20%/B</t>
+          <t>DC-005_TDC-002-1</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CNT-0157</t>
+          <t>CNT-0055</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PINHEADER</t>
+          <t>USB CON</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BH200S-H050-13G-2535</t>
+          <t>67680-8020(UX60-MB-5ST)/MINI USB 5P</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CNT-0158</t>
+          <t>CNT-0118</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PINHEADER</t>
+          <t>MODULAR CON</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BH254S-F050-02G-3060</t>
+          <t>DEK616PCB4-LS_BLACK/DIP</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CON-0003</t>
+          <t>CNT-0126</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CONNECTOR</t>
+          <t>MODULAR CON</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12505WS-04</t>
+          <t>DEK616PCB4-F/BLACK</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -996,33 +902,27 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CON-0004</t>
+          <t>CNT-0172</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CONNECTOR</t>
+          <t>PINHEADER</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12505WS-05</t>
+          <t>2mmPitch 7X2 Angle</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1031,29 +931,23 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CON-0011</t>
+          <t>CNT-0173</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CONNECTOR</t>
+          <t>PIN JUMPER</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12505WS-12</t>
+          <t>JUMPER_2mmPitch</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1063,32 +957,26 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CON-0960</t>
+          <t>CON-0003</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FFC-CONNECTOR</t>
+          <t>CONNECTOR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>04-6227-016-100-801</t>
+          <t>12505WS-04</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1101,169 +989,139 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ICC-0077</t>
+          <t>CON-0023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IC-RF</t>
+          <t>CONNECTOR</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CLRC66301HN,551</t>
+          <t>12505WR-10A00</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IPW-0021</t>
+          <t>CON-0911</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>REGULATOR</t>
+          <t>CONNECTOR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LM1117-3.3</t>
+          <t>05005HS-40F</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LCP-0009</t>
+          <t>CON-0949</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>L-CHIP</t>
+          <t>FFC-CONNECTOR</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>100uH/3225</t>
+          <t>10008HR-04L</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LCP-0064</t>
+          <t>CON-0950</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>L-CHIP</t>
+          <t>FFC-CONNECTOR</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>LQH31MNR47K03 / NLV32T-R47J-PF</t>
+          <t>20010WR-02</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LED-0004</t>
+          <t>CON-1014</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LED-CHIP</t>
+          <t>FFC-CONNECTOR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>IWS164-BSW/BULE/1608</t>
+          <t>04-6232-126-103-800/10008HR-26A</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1276,239 +1134,197 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LED-0032</t>
+          <t>CON-1018</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LED-CHIP</t>
+          <t>CONNECTOR</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RF-GUM190TS(GREEN H=0.4)/1608</t>
+          <t>14-5602-024-001-829</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LED-0033</t>
+          <t>CPU-0034</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LED-CHIP</t>
+          <t>IC-CPU</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>S1608YL-6L(YELLOW H=0.6)</t>
+          <t>EFM32GG230F512/QFN64</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LED-0060</t>
+          <t>CPU-0035</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LED-CHIP</t>
+          <t>IC-CPU</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>S1608RE-4T(RED)</t>
+          <t>TCC8935/BGA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LED-0063</t>
+          <t>CPU-0036</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LED-CHIP</t>
+          <t>IC-CPU</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LTW-C193SN5</t>
+          <t>NVP2430H/100 BGA</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PCB-0019</t>
+          <t>CPU-0074</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>IC-CPU</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ITWELL_EMVL1-V10(금도금)</t>
+          <t>GD32F103RC/LQFP64</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PCB-0144</t>
+          <t>CSY-0721</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>CABLE A'SSY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EP-731N_TRF V1.1(2층, 1.6t)</t>
+          <t>ED-946D_USB/15mm</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PCB-0187</t>
+          <t>CSY-0729</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>CABLE A'SSY</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EP-731N/RF_CLRC663 V1.2 /L2/HALL/1.6T</t>
+          <t>ED-947N/CABLE/BOARD IN "USB"</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1518,32 +1334,26 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PCB-0245</t>
+          <t>CSY-0732</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>CABLE A'SSY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TS-166/KEY BOARD/L6/GOLD/</t>
+          <t>LEAD WIRE(26AWG)60mm 5:5_ED-947N</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1556,29 +1366,23 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PCB-0247</t>
+          <t>DCP-0001</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TS-167/KEY/2L/1.6T/GOLD</t>
+          <t>M7 (1SR154-400)</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1588,155 +1392,1488 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOC-0001</t>
+          <t>DCP-0005</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IC CARD CONTACT</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SCG-W08B03-300</t>
+          <t>KDS226/SOT23</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TRC-0004</t>
+          <t>DCP-0006</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TR-CHIP</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>KTC3875/SOT23</t>
+          <t>LL4148/MELF</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>XTL-0030</t>
+          <t>DCP-0008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CRYSTAL</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14.7456MHz/18p/SX3</t>
+          <t>MMBD7000/SOT23</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>XTL-0058</t>
+          <t>DCP-0010</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Chip Diode</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SMBJ17A</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DCP-0014</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>D-CHIP</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>KDS160/USC</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DCP-0036</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Chip Diode</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1SMB5920BT3G (6.2V)</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DCP-0037</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Chip Diode</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AP131-33WG</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DCP-0038</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>D-CHIP</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>KDR411S/SOT23</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>DCP-0043</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DC/DC CONVERTOR</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>EUP3420JTR1/TDFN-10</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>DCP-0044</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DC/DC CONVERTOR</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>EMD2055-00VC06NRR/SOT-23-6</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>DCS-0003</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>D-CHIP-SHOTTKY</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RB161L-40/PMDS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DCT-0010</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>D-CHIP</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PESD0603-240, 1608</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DCT-0012</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>D-CHIP TVS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ULCE1005A015FR/1608</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>DCT-0024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>D-CHIP TVS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SFI0402TS050-0R3W</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FET-0017</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FET-CHIP</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>FDG6331L</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FLM-0011</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>IC-FLASH</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>K9F1G08U0E (NEW)</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FLM-0030</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>IC-FLASH</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>S25FL208K0RMFI01/SOIC-8/(SOC008)</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ICC-0025</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>IC-RS232</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SP3232EEY/TSSOP</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ICC-0055</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>IC</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>FT232RL/SSOP28</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ICC-0070</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>IC-EMV</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AU9540-GCS</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ICC-0076</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>IC</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TMD26711</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ICC-0082</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>IC-RESET</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>EUP7961B-33BIR1</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ICC-0085</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>IC-RESET</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>APL5325BI/SOT-23-5</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ICC-0087</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>IC-RESET</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>EUP3502AVIR1/SOT-23-5</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>IMS-0004</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MSR Decoder</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MMD1100/QFN16</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IPW-0021</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>REGULATOR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>LM1117-3.3</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>LCP-0002</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>L-CHIP</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>10uH/1608</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>LCP-0003</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>L-CHIP</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10uH/2012</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>LCP-0089</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>POWER INDUCTOR</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>LQH5BPN2R2NT0/5050</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>LCP-0090</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>POWER INDUCTOR</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>YC52RT-6R8M/5050</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>LED-0066</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>LED-DIP</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5pi/BF2-G01/Angle/4.7mm/GREEN</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>LED-0067</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LED-DIP</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>5pi/BF2-R01/Angle/4.7mm/RED</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MSR-0038</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MSR HEAD</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>JC-1220/ED-946_MSR/Track2 only</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>PCB-0170</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>EP-642 Rev1.1(1.6T, 2L, Gold)</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PCB-0191</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ED-946D/MAIN/HALL/L4/1.6T</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>PCB-0194</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ED-643N_BD_v3.0/6Layers, T1.6</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>RAM-0008</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>IC-SDRAM</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>H5TQ2G83BFR-PBC/82ball FBGA</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SOC-0029</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Telecom Fuse</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>FSMD150-R</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SOC-0030</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>SIM SOCKET</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MUP-C735_H2.5</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SWI-0023</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>SWITCH</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ST-1102V/6.85mm</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SWI-0031</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SWITCH</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CL-DB/LY-TS-10/H=2.5</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TRC-0002</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>KTA1504A/SOT23</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TRC-0004</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>KTC3875/SOT23</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>4</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TRC-0005</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>KTC3295B/SOT23</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TRC-0010</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>KRC107S/SOT23</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TTL-0270</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>IC-TTL</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>74HC245PW/TSSOP</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>XTL-0013</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>CRYSTAL</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>27.12MHz/SX-8</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>8MHz/SX1</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>XTL-0055</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>12.000Mhz/18pF/SX8/5032</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>XTL-0064</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>24.000MHz/SX8</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>XTL-0068</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>48.000MHz/SX-8</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>XTL-0069</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>OSCILLATOR</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>54.000MHz/3025</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output_2nd.xlsx
+++ b/output_2nd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,39 +451,39 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MS-233_MAIN(SK)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>EP-642_MAIN BOARD</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ED-643N_MAIN</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ED-946V_MAIN</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ED-947N_MAIN_USB</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BED-0007</t>
+          <t>AMP-0001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BEAD</t>
+          <t>IC-OPAMP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HB-1S2012-800/EBMS201209A800</t>
+          <t>KA358A/SOP8</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -493,30 +493,30 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BED-0014</t>
+          <t>BAT-0016</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BEAD</t>
+          <t>BAT-BACKUP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HB-1S1608-800/EBMS160808A800</t>
+          <t>CR2032/3PIN/ST</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BED-0015</t>
+          <t>BED-0007</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HH-1M2012-121/ACMS201209A121</t>
+          <t>HB-1S2012-800/EBMS201209A800</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -554,13 +554,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BED-0019</t>
+          <t>BED-0014</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -570,46 +570,46 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ACMS160808A121/HH-1M1608-121</t>
+          <t>HB-1S1608-800/EBMS160808A800</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BUZ-0010</t>
+          <t>BED-0015</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BUZZER</t>
+          <t>BEAD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SMT-2603 / CSM-9027A</t>
+          <t>HH-1M2012-121/ACMS201209A121</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -618,50 +618,50 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BUZ-0015</t>
+          <t>BED-0019</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BUZZER</t>
+          <t>BEAD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GEC09D/DIP</t>
+          <t>ACMS160808A121/HH-1M1608-121</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BUZ-0017</t>
+          <t>BED-0021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BUZZER</t>
+          <t>BEAD CHIP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CRP-9650-3</t>
+          <t>ICVE21184E150R101</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -676,17 +676,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CCT-0098</t>
+          <t>BUZ-0010</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHIP-TANTAL</t>
+          <t>BUZZER</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10uF/10V/20%/P</t>
+          <t>SMT-2603 / CSM-9027A</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -705,21 +705,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CCT-0102</t>
+          <t>BUZ-0015</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHIP-TANTAL</t>
+          <t>BUZZER</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10uF/16V/20%/A</t>
+          <t>GEC09D/DIP</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -728,30 +728,30 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CCT-0139</t>
+          <t>BUZ-0017</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHIP-TANTAL</t>
+          <t>BUZZER</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22uF/16V/20%/B</t>
+          <t>CRP-9650-3</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CCT-0392</t>
+          <t>CCT-0038</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -773,36 +773,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>47uF/10V/B</t>
+          <t>2.2uF/10V/20%/P</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CNT-0050</t>
+          <t>CCT-0098</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC JACK</t>
+          <t>CHIP-TANTAL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC-005_TDC-002-1</t>
+          <t>10uF/10V/20%/P</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -821,24 +821,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CNT-0055</t>
+          <t>CCT-0102</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>USB CON</t>
+          <t>CHIP-TANTAL</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>67680-8020(UX60-MB-5ST)/MINI USB 5P</t>
+          <t>10uF/16V/20%/A</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -850,27 +850,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CNT-0118</t>
+          <t>CCT-0139</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODULAR CON</t>
+          <t>CHIP-TANTAL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DEK616PCB4-LS_BLACK/DIP</t>
+          <t>22uF/16V/20%/B</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -879,111 +879,111 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CNT-0126</t>
+          <t>CCT-0392</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MODULAR CON</t>
+          <t>CHIP-TANTAL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DEK616PCB4-F/BLACK</t>
+          <t>47uF/10V/B</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CNT-0172</t>
+          <t>CCT-0395</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PINHEADER</t>
+          <t>CHIP-TANTAL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2mmPitch 7X2 Angle</t>
+          <t>47uF/16V/10%/C</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CNT-0173</t>
+          <t>CCT-1129</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PIN JUMPER</t>
+          <t>CHIP-TANTAL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>JUMPER_2mmPitch</t>
+          <t>47uF/10V/10%/A</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CON-0003</t>
+          <t>CNT-0046</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CONNECTOR</t>
+          <t>DC JACK</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12505WS-04</t>
+          <t>DC-021 (DC-003 대만산)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -995,27 +995,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CON-0023</t>
+          <t>CNT-0050</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CONNECTOR</t>
+          <t>DC JACK</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12505WR-10A00</t>
+          <t>DC-005_TDC-002-1</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1024,27 +1024,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CON-0911</t>
+          <t>CNT-0055</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CONNECTOR</t>
+          <t>USB CON</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>05005HS-40F</t>
+          <t>67680-8020(UX60-MB-5ST)/MINI USB 5P</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1053,17 +1053,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CON-0949</t>
+          <t>CNT-0066</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FFC-CONNECTOR</t>
+          <t>CDMA-RF CON</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10008HR-04L</t>
+          <t>MOB-131</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1082,21 +1082,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CON-0950</t>
+          <t>CNT-0083</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FFC-CONNECTOR</t>
+          <t>PIN SOCKET_SMD_MS-5800</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20010WR-02</t>
+          <t>BS127S-SL35-10G</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1111,27 +1111,27 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CON-1014</t>
+          <t>CNT-0118</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FFC-CONNECTOR</t>
+          <t>MODULAR CON</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>04-6232-126-103-800/10008HR-26A</t>
+          <t>DEK616PCB4-LS_BLACK/DIP</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1140,24 +1140,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CON-1018</t>
+          <t>CNT-0123</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CONNECTOR</t>
+          <t>USB CON</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14-5602-024-001-829</t>
+          <t>HI05-AG0250,FEMAIL</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1169,53 +1169,53 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CPU-0034</t>
+          <t>CNT-0126</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IC-CPU</t>
+          <t>MODULAR CON</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EFM32GG230F512/QFN64</t>
+          <t>DEK616PCB4-F/BLACK</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CPU-0035</t>
+          <t>CNT-0127</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IC-CPU</t>
+          <t>CDMA CON</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TCC8935/BGA</t>
+          <t>AXK5S30047YG</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1227,24 +1227,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CPU-0036</t>
+          <t>CNT-0149</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IC-CPU</t>
+          <t>CDMA CON</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NVP2430H/100 BGA</t>
+          <t>AXK5F60547YG</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1256,21 +1256,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CPU-0074</t>
+          <t>CNT-0172</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IC-CPU</t>
+          <t>PINHEADER</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GD32F103RC/LQFP64</t>
+          <t>2mmPitch 7X2 Angle</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1279,23 +1279,23 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CSY-0721</t>
+          <t>CNT-0173</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CABLE A'SSY</t>
+          <t>PIN JUMPER</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ED-946D_USB/15mm</t>
+          <t>JUMPER_2mmPitch</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1305,26 +1305,26 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CSY-0729</t>
+          <t>CON-0003</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CABLE A'SSY</t>
+          <t>CONNECTOR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ED-947N/CABLE/BOARD IN "USB"</t>
+          <t>12505WS-04</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1334,26 +1334,26 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CSY-0732</t>
+          <t>CON-0023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CABLE A'SSY</t>
+          <t>CONNECTOR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LEAD WIRE(26AWG)60mm 5:5_ED-947N</t>
+          <t>12505WR-10A00</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1363,55 +1363,55 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>DCP-0001</t>
+          <t>CON-0904</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>D-CHIP</t>
+          <t>RF CONNETOR</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>M7 (1SR154-400)</t>
+          <t>MM9329-2700B/U.FL-R-SMT</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DCP-0005</t>
+          <t>CON-0911</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>D-CHIP</t>
+          <t>CONNECTOR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>KDS226/SOT23</t>
+          <t>05005HS-40F</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1430,53 +1430,53 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DCP-0006</t>
+          <t>CON-0925</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>D-CHIP</t>
+          <t>CONNECTOR</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LL4148/MELF</t>
+          <t>20017WS-02/053014-0210</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DCP-0008</t>
+          <t>CON-0949</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D-CHIP</t>
+          <t>FFC-CONNECTOR</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MMBD7000/SOT23</t>
+          <t>10008HR-04L</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1488,24 +1488,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DCP-0010</t>
+          <t>CON-0950</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chip Diode</t>
+          <t>FFC-CONNECTOR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SMBJ17A</t>
+          <t>20010WR-02</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1517,24 +1517,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DCP-0014</t>
+          <t>CON-0955</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D-CHIP</t>
+          <t>FFC-CONNECTOR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>KDS160/USC</t>
+          <t>FH26-39S-0.3SHW</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1546,17 +1546,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DCP-0036</t>
+          <t>CON-1014</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chip Diode</t>
+          <t>FFC-CONNECTOR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1SMB5920BT3G (6.2V)</t>
+          <t>04-6232-126-103-800/10008HR-26A</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1575,17 +1575,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DCP-0037</t>
+          <t>CON-1018</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chip Diode</t>
+          <t>CONNECTOR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AP131-33WG</t>
+          <t>14-5602-024-001-829</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1598,91 +1598,91 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DCP-0038</t>
+          <t>CPU-0001</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>D-CHIP</t>
+          <t>IC-CPU</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>KDR411S/SOT23</t>
+          <t>HMS30C7210/BGA</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DCP-0043</t>
+          <t>CPU-0034</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DC/DC CONVERTOR</t>
+          <t>IC-CPU</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EUP3420JTR1/TDFN-10</t>
+          <t>EFM32GG230F512/QFN64</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DCP-0044</t>
+          <t>CPU-0035</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DC/DC CONVERTOR</t>
+          <t>IC-CPU</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EMD2055-00VC06NRR/SOT-23-6</t>
+          <t>TCC8935/BGA</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1691,27 +1691,27 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DCS-0003</t>
+          <t>CPU-0036</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D-CHIP-SHOTTKY</t>
+          <t>IC-CPU</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RB161L-40/PMDS</t>
+          <t>NVP2430H/100 BGA</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1720,24 +1720,24 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DCT-0010</t>
+          <t>CPU-0074</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D-CHIP</t>
+          <t>IC-CPU</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PESD0603-240, 1608</t>
+          <t>GD32F103RC/LQFP64</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1749,17 +1749,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DCT-0012</t>
+          <t>CSY-0721</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D-CHIP TVS</t>
+          <t>CABLE A'SSY</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ULCE1005A015FR/1608</t>
+          <t>ED-946D_USB/15mm</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1769,26 +1769,26 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DCT-0024</t>
+          <t>DCP-0001</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D-CHIP TVS</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SFI0402TS050-0R3W</t>
+          <t>M7 (1SR154-400)</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -1807,82 +1807,82 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FET-0017</t>
+          <t>DCP-0005</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FET-CHIP</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FDG6331L</t>
+          <t>KDS226/SOT23</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FLM-0011</t>
+          <t>DCP-0006</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IC-FLASH</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>K9F1G08U0E (NEW)</t>
+          <t>LL4148/MELF</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FLM-0030</t>
+          <t>DCP-0008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IC-FLASH</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>S25FL208K0RMFI01/SOIC-8/(SOC008)</t>
+          <t>MMBD7000/SOT23</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1894,17 +1894,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ICC-0025</t>
+          <t>DCP-0010</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IC-RS232</t>
+          <t>Chip Diode</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SP3232EEY/TSSOP</t>
+          <t>SMBJ17A</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1914,91 +1914,91 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ICC-0055</t>
+          <t>DCP-0011</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IC</t>
+          <t>RV</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>FT232RL/SSOP28</t>
+          <t>ICVN1005A150FR</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ICC-0070</t>
+          <t>DCP-0014</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IC-EMV</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AU9540-GCS</t>
+          <t>KDS160/USC</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ICC-0076</t>
+          <t>DCP-0016</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IC</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>TMD26711</t>
+          <t>KDS184/SOT-23</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2010,27 +2010,27 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ICC-0082</t>
+          <t>DCP-0036</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>IC-RESET</t>
+          <t>Chip Diode</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EUP7961B-33BIR1</t>
+          <t>1SMB5920BT3G (6.2V)</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2039,75 +2039,75 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ICC-0085</t>
+          <t>DCP-0037</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>IC-RESET</t>
+          <t>Chip Diode</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>APL5325BI/SOT-23-5</t>
+          <t>AP131-33WG</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ICC-0087</t>
+          <t>DCP-0038</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>IC-RESET</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EUP3502AVIR1/SOT-23-5</t>
+          <t>KDR411S/SOT23</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IMS-0004</t>
+          <t>DCP-0043</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MSR Decoder</t>
+          <t>DC/DC CONVERTOR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MMD1100/QFN16</t>
+          <t>EUP3420JTR1/TDFN-10</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -2117,36 +2117,36 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IPW-0021</t>
+          <t>DCP-0044</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>REGULATOR</t>
+          <t>DC/DC CONVERTOR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LM1117-3.3</t>
+          <t>EMD2055-00VC06NRR/SOT-23-6</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2155,27 +2155,27 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LCP-0002</t>
+          <t>DCS-0003</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>L-CHIP</t>
+          <t>D-CHIP-SHOTTKY</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10uH/1608</t>
+          <t>RB161L-40/PMDS</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2184,17 +2184,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LCP-0003</t>
+          <t>DCT-0001</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>L-CHIP</t>
+          <t>D-CHIP TVS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>10uH/2012</t>
+          <t>DF5A5.6LFU/SOT-353 DF5A8.2LFU</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2213,24 +2213,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LCP-0089</t>
+          <t>DCT-0010</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>POWER INDUCTOR</t>
+          <t>D-CHIP</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LQH5BPN2R2NT0/5050</t>
+          <t>PESD0603-240, 1608</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2242,46 +2242,46 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LCP-0090</t>
+          <t>DCT-0012</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>POWER INDUCTOR</t>
+          <t>D-CHIP TVS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>YC52RT-6R8M/5050</t>
+          <t>ULCE1005A015FR/1608</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LED-0066</t>
+          <t>DCT-0024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LED-DIP</t>
+          <t>D-CHIP TVS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5pi/BF2-G01/Angle/4.7mm/GREEN</t>
+          <t>SFI0402TS050-0R3W</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2300,79 +2300,79 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LED-0067</t>
+          <t>DCZ-0004</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LED-DIP</t>
+          <t>D-CHIP ZENER</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>5pi/BF2-R01/Angle/4.7mm/RED</t>
+          <t>Z02W3.0V/SOT23</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MSR-0038</t>
+          <t>DCZ-0081</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MSR HEAD</t>
+          <t>D-CHIP ZENER</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>JC-1220/ED-946_MSR/Track2 only</t>
+          <t>RF201L2S/PMDS</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PCB-0170</t>
+          <t>FET-0001</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>FET-CHIP</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EP-642 Rev1.1(1.6T, 2L, Gold)</t>
+          <t>IRLML2402/SOT23</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -2387,53 +2387,53 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PCB-0191</t>
+          <t>FET-0002</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>FET-CHIP</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ED-946D/MAIN/HALL/L4/1.6T</t>
+          <t>IRLML6402/SOT23</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PCB-0194</t>
+          <t>FET-0006</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PCB</t>
+          <t>FET-CHIP</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ED-643N_BD_v3.0/6Layers, T1.6</t>
+          <t>FDC6321C/SuperSOT-6</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2445,56 +2445,56 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>RAM-0008</t>
+          <t>FET-0017</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>IC-SDRAM</t>
+          <t>FET-CHIP</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>H5TQ2G83BFR-PBC/82ball FBGA</t>
+          <t>FDG6331L</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOC-0029</t>
+          <t>FLM-0011</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Telecom Fuse</t>
+          <t>IC-FLASH</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FSMD150-R</t>
+          <t>K9F1G08U0E (NEW)</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2503,46 +2503,46 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOC-0030</t>
+          <t>FLM-0025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SIM SOCKET</t>
+          <t>IC-FLASH</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MUP-C735_H2.5</t>
+          <t>S 2 9 G  L 1 2 8 S 9  0 T F I 0 1 0 / T S O P  - 56</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SWI-0023</t>
+          <t>FLM-0030</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SWITCH</t>
+          <t>IC-FLASH</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ST-1102V/6.85mm</t>
+          <t>S25FL208K0RMFI01/SOIC-8/(SOC008)</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -2555,56 +2555,56 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SWI-0031</t>
+          <t>ICC-0011</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SWITCH</t>
+          <t>IC-RESET</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CL-DB/LY-TS-10/H=2.5</t>
+          <t>KIA7027AF/SOT89</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TRC-0002</t>
+          <t>ICC-0015</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TR-CHIP</t>
+          <t>IC-MOT DRV</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>KTA1504A/SOT23</t>
+          <t>BA6845FS</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -2619,108 +2619,108 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TRC-0004</t>
+          <t>ICC-0020</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TR-CHIP</t>
+          <t>IC-EMV</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>KTC3875/SOT23</t>
+          <t>AT83C26-RKTUL/VQFP48</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TRC-0005</t>
+          <t>ICC-0025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TR-CHIP</t>
+          <t>IC-RS232</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>KTC3295B/SOT23</t>
+          <t>SP3232EEY/TSSOP</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TRC-0010</t>
+          <t>ICC-0055</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TR-CHIP</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>KRC107S/SOT23</t>
+          <t>FT232RL/SSOP28</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TTL-0270</t>
+          <t>ICC-0070</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>IC-TTL</t>
+          <t>IC-EMV</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>74HC245PW/TSSOP</t>
+          <t>AU9540-GCS</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -2729,33 +2729,33 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>XTL-0013</t>
+          <t>ICC-0076</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CRYSTAL</t>
+          <t>IC</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>8MHz/SX1</t>
+          <t>TMD26711</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -2764,17 +2764,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>XTL-0055</t>
+          <t>ICC-0082</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CRYSTAL</t>
+          <t>IC-RESET</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>12.000Mhz/18pF/SX8/5032</t>
+          <t>EUP7961B-33BIR1</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2787,33 +2787,33 @@
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>XTL-0064</t>
+          <t>ICC-0085</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CRYSTAL</t>
+          <t>IC-RESET</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>24.000MHz/SX8</t>
+          <t>APL5325BI/SOT-23-5</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2822,17 +2822,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>XTL-0068</t>
+          <t>ICC-0087</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CRYSTAL</t>
+          <t>IC-RESET</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>48.000MHz/SX-8</t>
+          <t>EUP3502AVIR1/SOT-23-5</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2842,38 +2842,1343 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>IMS-0002</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MSR Decoder</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>JS600R/SSOP24</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>IMS-0004</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MSR Decoder</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MMD1100/QFN16</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>IPW-0002</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>IC-REGULATOR</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MIC39102-ADJ/SO8</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>IPW-0021</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>REGULATOR</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>LM1117-3.3</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>IPW-0041</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>IC-CHARGER</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ISL9220A/2cell</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>LCP-0002</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>L-CHIP</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>10uH/1608</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>4</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>LCP-0003</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>L-CHIP</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>10uH/2012</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>LCP-0057</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>POWER INDUCTOR</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>SPS6028</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>LCP-0089</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>POWER INDUCTOR</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>LQH5BPN2R2NT0/5050</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>LCP-0090</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>POWER INDUCTOR</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>YC52RT-6R8M/5050</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>LED-0066</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>LED-DIP</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5pi/BF2-G01/Angle/4.7mm/GREEN</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>LED-0067</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LED-DIP</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>5pi/BF2-R01/Angle/4.7mm/RED</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MSR-0016</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>MSR HEAD</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>JC-1060-58-1 ISO 2/3</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MSR-0038</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>MSR HEAD</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>JC-1220/ED-946_MSR/Track2 only</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>PCB-0157</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MAIN/0.8T/6L/MS-233(GOLD)</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>PCB-0170</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>EP-642 Rev1.1(1.6T, 2L, Gold)</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PCB-0191</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ED-946D/MAIN/HALL/L4/1.6T</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PCB-0194</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>PCB</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ED-643N_BD_v3.0/6Layers, T1.6</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>RAM-0008</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>IC-SDRAM</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>H5TQ2G83BFR-PBC/82ball FBGA</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RAW-0009</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>IC-SDRAM</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>W9812G6KH-6_H57V1262GTR-75C HY57</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SOC-0013</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SIM SOCKET</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>MUP-C735_H1.4</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SOC-0029</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Telecom Fuse</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>FSMD150-R</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SOC-0030</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SIM SOCKET</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MUP-C735_H2.5</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SUB-5053</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>기구 부자재</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>KIC-5210STP</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SUB-5136</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>BUSHING CMOT</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PCM-1000WM_BUSHUING</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SWI-0023</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SWITCH</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ST-1102V/6.85mm</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SWI-0031</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SWITCH</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CL-DB/LY-TS-10/H=2.5</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TRC-0002</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>KTA1504A/SOT23</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>TRC-0004</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>KTC3875/SOT23</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TRC-0005</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>KTC3295B/SOT23</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>TRC-0010</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>KRC107S/SOT23</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TRC-0011</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>KRC110S/SOT23</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>TRC-0013</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>KRC116S SOT-23</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>TRC-0014</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TR-CHIP</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>KRC119S (C) SOT-23</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>TTL-0270</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>IC-TTL</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>74HC245PW/TSSOP</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>TTL-0291</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>IC-TTL</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>74HC132PW/TSSOP</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>TTL-0294</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>IC-TTL</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>74HC244PW/TSSOP</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>TTL-0389</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>IC-TTL</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>74LVC1G00GW/SOT353-1</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>XTL-0013</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>8MHz/SX1</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>XTL-0042</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>OSCILLATOR</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>14.7692MHz(3.3V) SX-7</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>XTL-0045</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>6MHz/CL=18pF/SX7</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>XTL-0055</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>12.000Mhz/18pF/SX8/5032</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>XTL-0056</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>SSP-T7-F(32.768MHz/12.5pF)</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>XTL-0064</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>24.000MHz/SX8</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>XTL-0068</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CRYSTAL</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>48.000MHz/SX-8</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>XTL-0069</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>OSCILLATOR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>54.000MHz/3025</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" t="n">
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
         <v>0</v>
       </c>
     </row>
